--- a/T- and Chi2 test tables/top4_all_tw_chi2_by_binary_target.xlsx
+++ b/T- and Chi2 test tables/top4_all_tw_chi2_by_binary_target.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>variable</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>raw_len_bins</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>vid_dur_bins</t>
+  </si>
+  <si>
+    <t>sentiment</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,6 +492,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>7.204</v>
+      </c>
+      <c r="D6">
+        <v>0.782</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>10.465</v>
+      </c>
+      <c r="D7">
+        <v>0.314</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>5.234</v>
+      </c>
+      <c r="D8">
+        <v>0.073</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
